--- a/suy diễn.xlsx
+++ b/suy diễn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptiteduvn-my.sharepoint.com/personal/huytq_b20cn327_stu_ptit_edu_vn/Documents/Desktop/CHTDTTT/BTL/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43CD6CE-B4BC-4CEA-83AD-67642F2934CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{C43CD6CE-B4BC-4CEA-83AD-67642F2934CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3664E9D-FA1B-4E6D-9AC0-6FDB5117D5FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11A7FC23-E157-423F-8919-F627F9C29D18}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="229">
   <si>
     <t>S1</t>
   </si>
@@ -748,15 +748,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -820,11 +826,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -835,7 +861,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1152,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D492B16-5BBC-4C99-BB10-F54B80A61577}">
-  <dimension ref="C1:F221"/>
+  <dimension ref="C1:F398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86:F95"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="E253" sqref="E253:F398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,16 +1279,16 @@
       </c>
     </row>
     <row r="6" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6">
+      <c r="C6" s="7">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1360,16 +1405,16 @@
       </c>
     </row>
     <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="C15" s="7">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1416,16 +1461,16 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19">
+      <c r="C19" s="7">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1528,16 +1573,16 @@
       </c>
     </row>
     <row r="27" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27">
+      <c r="C27" s="7">
         <v>27</v>
       </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1584,16 +1629,16 @@
       </c>
     </row>
     <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31">
+      <c r="C31" s="7">
         <v>31</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1640,16 +1685,16 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35">
+      <c r="C35" s="7">
         <v>35</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1682,16 +1727,16 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38">
+      <c r="C38" s="7">
         <v>38</v>
       </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1710,16 +1755,16 @@
       </c>
     </row>
     <row r="40" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40">
+      <c r="C40" s="7">
         <v>40</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2074,72 +2119,72 @@
       </c>
     </row>
     <row r="66" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66">
+      <c r="C66" s="7">
         <v>66</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67">
+      <c r="C67" s="7">
         <v>67</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68">
+      <c r="C68" s="7">
         <v>68</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69">
+      <c r="C69" s="7">
         <v>69</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70">
+      <c r="C70" s="7">
         <v>70</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3180,184 +3225,184 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145">
+      <c r="C145" s="7">
         <v>145</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D145" s="7">
+        <v>0</v>
+      </c>
+      <c r="E145" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="146" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C146">
+      <c r="C146" s="7">
         <v>146</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" s="3" t="s">
+      <c r="D146" s="7">
+        <v>0</v>
+      </c>
+      <c r="E146" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="147" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C147">
+      <c r="C147" s="7">
         <v>147</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" s="3" t="s">
+      <c r="D147" s="7">
+        <v>0</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="148" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C148">
+      <c r="C148" s="7">
         <v>148</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="D148" s="7">
+        <v>0</v>
+      </c>
+      <c r="E148" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="149" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C149">
+      <c r="C149" s="7">
         <v>149</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="D149" s="7">
+        <v>0</v>
+      </c>
+      <c r="E149" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="150" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C150">
+      <c r="C150" s="7">
         <v>150</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="D150" s="7">
+        <v>0</v>
+      </c>
+      <c r="E150" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="151" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C151">
+      <c r="C151" s="7">
         <v>151</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="D151" s="7">
+        <v>0</v>
+      </c>
+      <c r="E151" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F151" s="4" t="s">
+      <c r="F151" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="152" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C152">
+      <c r="C152" s="7">
         <v>152</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="D152" s="7">
+        <v>0</v>
+      </c>
+      <c r="E152" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F152" s="4" t="s">
+      <c r="F152" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C153">
+      <c r="C153" s="7">
         <v>153</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" s="3" t="s">
+      <c r="D153" s="7">
+        <v>0</v>
+      </c>
+      <c r="E153" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F153" s="4" t="s">
+      <c r="F153" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="154" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C154">
+      <c r="C154" s="7">
         <v>154</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" s="3" t="s">
+      <c r="D154" s="7">
+        <v>0</v>
+      </c>
+      <c r="E154" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="155" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C155">
+      <c r="C155" s="7">
         <v>155</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" s="3" t="s">
+      <c r="D155" s="7">
+        <v>0</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F155" s="4" t="s">
+      <c r="F155" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="156" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C156">
+      <c r="C156" s="7">
         <v>156</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3" t="s">
+      <c r="D156" s="7">
+        <v>0</v>
+      </c>
+      <c r="E156" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F156" s="4" t="s">
+      <c r="F156" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="157" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C157">
+      <c r="C157" s="7">
         <v>157</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157" s="3" t="s">
+      <c r="D157" s="7">
+        <v>0</v>
+      </c>
+      <c r="E157" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F157" s="4" t="s">
+      <c r="F157" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4132,34 +4177,2598 @@
       </c>
     </row>
     <row r="213" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="5"/>
     </row>
     <row r="214" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E214" s="3"/>
-      <c r="F214" s="4"/>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="215" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
-    </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F216" s="4"/>
-    </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F218" s="4"/>
-    </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F219" s="4"/>
-    </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F220" s="4"/>
-    </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F221" s="4"/>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216">
+        <v>3</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <v>4</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>5</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>7</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>9</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>10</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C226">
+        <v>13</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C227">
+        <v>14</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C228">
+        <v>15</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C229">
+        <v>16</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230">
+        <v>17</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C231">
+        <v>18</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C232">
+        <v>19</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C233">
+        <v>20</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C234">
+        <v>21</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C235">
+        <v>22</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C236">
+        <v>23</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C237">
+        <v>24</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C238">
+        <v>25</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>26</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>27</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>28</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>29</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>30</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>31</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>32</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>33</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>34</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>35</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C249">
+        <v>36</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C250">
+        <v>37</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C251">
+        <v>38</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C252">
+        <v>39</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C253">
+        <v>40</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C254">
+        <v>41</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C255">
+        <v>42</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C256">
+        <v>43</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C257">
+        <v>44</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C258">
+        <v>45</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C259">
+        <v>46</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C260">
+        <v>47</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <v>48</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C262">
+        <v>49</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C263">
+        <v>50</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>51</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>52</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>53</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>54</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="3:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>55</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>56</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C270">
+        <v>57</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C271">
+        <v>58</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C272">
+        <v>59</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C273">
+        <v>60</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C274">
+        <v>61</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C275">
+        <v>62</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C276">
+        <v>63</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C277">
+        <v>64</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C278">
+        <v>65</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C279">
+        <v>66</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C280">
+        <v>67</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C281">
+        <v>68</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C282">
+        <v>69</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283">
+        <v>70</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>71</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>72</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>73</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="287" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>74</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="288" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C288">
+        <v>75</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="289" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>76</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="290" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>77</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="291" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>78</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="292" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C292">
+        <v>79</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>80</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="294" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C294">
+        <v>81</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="295" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C295">
+        <v>82</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="296" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C296">
+        <v>83</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="297" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C297">
+        <v>84</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="298" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C298">
+        <v>85</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="299" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C299">
+        <v>86</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="300" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C300">
+        <v>87</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="301" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C301">
+        <v>88</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="302" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C302">
+        <v>89</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="303" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C303">
+        <v>90</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="304" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C304">
+        <v>91</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="305" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <v>92</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="306" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C306">
+        <v>93</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="307" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C307">
+        <v>94</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="308" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>95</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="309" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>96</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="310" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C310">
+        <v>97</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="311" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>98</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="312" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C312">
+        <v>99</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="313" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>100</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="314" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C314">
+        <v>101</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="315" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C315">
+        <v>102</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C316">
+        <v>103</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="317" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C317">
+        <v>104</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C318">
+        <v>105</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="319" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C319">
+        <v>106</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="320" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C320">
+        <v>107</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C321">
+        <v>108</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="322" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C322">
+        <v>109</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="323" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C323">
+        <v>110</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="324" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C324">
+        <v>111</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="325" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C325">
+        <v>112</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="326" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C326">
+        <v>113</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="327" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C327">
+        <v>114</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C328">
+        <v>115</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="329" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>116</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="330" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>117</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="331" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>118</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="332" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>119</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="333" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>120</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="334" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C334">
+        <v>121</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="335" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>122</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="336" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>123</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="337" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>124</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="338" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>125</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="339" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C339">
+        <v>126</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="340" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C340">
+        <v>127</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="341" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C341">
+        <v>128</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="342" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C342">
+        <v>129</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="343" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C343">
+        <v>130</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="344" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C344">
+        <v>131</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="345" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C345">
+        <v>132</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="346" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C346">
+        <v>133</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="347" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C347">
+        <v>134</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="348" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C348">
+        <v>135</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="349" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C349">
+        <v>136</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="350" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C350">
+        <v>137</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="351" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <v>138</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="352" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C352">
+        <v>139</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="353" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C353">
+        <v>140</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="354" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C354">
+        <v>141</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F354" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="355" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>142</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="356" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C356">
+        <v>143</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="357" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>144</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="358" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C358">
+        <v>145</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="359" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>146</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="360" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C360">
+        <v>147</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="361" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C361">
+        <v>148</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="362" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C362">
+        <v>149</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="363" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C363">
+        <v>150</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F363" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="364" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C364">
+        <v>151</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F364" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="365" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C365">
+        <v>152</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F365" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="366" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C366">
+        <v>153</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F366" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="367" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C367">
+        <v>154</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F367" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="368" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C368">
+        <v>155</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F368" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="369" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C369">
+        <v>156</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F369" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="370" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C370">
+        <v>157</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F370" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="371" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C371">
+        <v>158</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F371" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="372" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C372">
+        <v>159</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F372" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="373" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>160</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F373" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="374" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C374">
+        <v>161</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F374" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="375" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>162</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F375" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="376" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C376">
+        <v>163</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F376" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="377" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>164</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F377" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="378" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C378">
+        <v>165</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F378" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="379" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C379">
+        <v>166</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F379" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="380" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C380">
+        <v>167</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F380" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="381" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C381">
+        <v>168</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F381" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="382" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C382">
+        <v>169</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="383" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C383">
+        <v>170</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F383" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="384" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C384">
+        <v>171</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F384" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="385" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C385">
+        <v>172</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F385" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="386" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C386">
+        <v>173</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F386" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="387" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C387">
+        <v>174</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F387" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="388" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C388">
+        <v>175</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F388" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="389" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C389">
+        <v>176</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F389" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="390" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C390">
+        <v>177</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F390" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="391" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C391">
+        <v>178</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F391" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="392" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C392">
+        <v>179</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F392" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="393" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C393">
+        <v>180</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F393" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="394" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C394">
+        <v>181</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F394" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="395" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C395">
+        <v>182</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F395" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="396" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C396">
+        <v>183</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F396" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="397" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C397">
+        <v>184</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F397" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="398" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C398">
+        <v>185</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
